--- a/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['19', '45+3', '75']</t>
+  </si>
+  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -1482,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK371"/>
+  <dimension ref="A1:BK373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2299,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -3535,7 +3538,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3914,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -4105,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4299,7 +4302,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -5251,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT20">
         <v>0.95</v>
@@ -5928,7 +5931,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6400,7 +6403,7 @@
         <v>2.39</v>
       </c>
       <c r="AT26">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU26">
         <v>2.26</v>
@@ -6970,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT29">
         <v>0.53</v>
@@ -7265,7 +7268,7 @@
         <v>89</v>
       </c>
       <c r="P31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -8220,7 +8223,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8411,7 +8414,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8883,7 +8886,7 @@
         <v>2.21</v>
       </c>
       <c r="AT39">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU39">
         <v>1.8</v>
@@ -8984,7 +8987,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9557,7 +9560,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9835,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT44">
         <v>0.95</v>
@@ -9939,7 +9942,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -10220,7 +10223,7 @@
         <v>1.63</v>
       </c>
       <c r="AT46">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU46">
         <v>1.6</v>
@@ -10981,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT50">
         <v>0.95</v>
@@ -12894,7 +12897,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU60">
         <v>1.76</v>
@@ -13849,7 +13852,7 @@
         <v>1.63</v>
       </c>
       <c r="AT65">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU65">
         <v>2.04</v>
@@ -13950,7 +13953,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14801,7 +14804,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT70">
         <v>1.58</v>
@@ -15756,7 +15759,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT75">
         <v>0.95</v>
@@ -16138,7 +16141,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT77">
         <v>0.72</v>
@@ -16433,7 +16436,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16523,7 +16526,7 @@
         <v>2.16</v>
       </c>
       <c r="AT79">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU79">
         <v>1.62</v>
@@ -16624,7 +16627,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17669,7 +17672,7 @@
         <v>2.21</v>
       </c>
       <c r="AT85">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU85">
         <v>1.47</v>
@@ -19388,7 +19391,7 @@
         <v>2.32</v>
       </c>
       <c r="AT94">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU94">
         <v>1.86</v>
@@ -19489,7 +19492,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19680,7 +19683,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20253,7 +20256,7 @@
         <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20635,7 +20638,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20826,7 +20829,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q102">
         <v>13</v>
@@ -20916,7 +20919,7 @@
         <v>1.56</v>
       </c>
       <c r="AT102">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU102">
         <v>1.76</v>
@@ -21208,7 +21211,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21295,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT104">
         <v>0.9399999999999999</v>
@@ -21590,7 +21593,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21680,7 +21683,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU106">
         <v>1.71</v>
@@ -22059,7 +22062,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT108">
         <v>0.61</v>
@@ -22736,7 +22739,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22927,7 +22930,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23118,7 +23121,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23691,7 +23694,7 @@
         <v>111</v>
       </c>
       <c r="P117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -24073,7 +24076,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24736,7 +24739,7 @@
         <v>2.5</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU122">
         <v>2.15</v>
@@ -25118,7 +25121,7 @@
         <v>1.94</v>
       </c>
       <c r="AT124">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU124">
         <v>1.6</v>
@@ -25497,7 +25500,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT126">
         <v>0.63</v>
@@ -25601,7 +25604,7 @@
         <v>166</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>13</v>
@@ -26070,7 +26073,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT129">
         <v>0.67</v>
@@ -26365,7 +26368,7 @@
         <v>168</v>
       </c>
       <c r="P131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26747,7 +26750,7 @@
         <v>169</v>
       </c>
       <c r="P133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27792,7 +27795,7 @@
         <v>2.32</v>
       </c>
       <c r="AT138">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU138">
         <v>1.95</v>
@@ -28275,7 +28278,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28553,7 +28556,7 @@
         <v>0.6</v>
       </c>
       <c r="AS142">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT142">
         <v>1.22</v>
@@ -28657,7 +28660,7 @@
         <v>89</v>
       </c>
       <c r="P143" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28938,7 +28941,7 @@
         <v>1.56</v>
       </c>
       <c r="AT144">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU144">
         <v>1.77</v>
@@ -29230,7 +29233,7 @@
         <v>89</v>
       </c>
       <c r="P146" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29421,7 +29424,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29508,7 +29511,7 @@
         <v>0.83</v>
       </c>
       <c r="AS147">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT147">
         <v>0.95</v>
@@ -30758,7 +30761,7 @@
         <v>135</v>
       </c>
       <c r="P154" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -31036,7 +31039,7 @@
         <v>1.29</v>
       </c>
       <c r="AS155">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT155">
         <v>0.61</v>
@@ -31904,7 +31907,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -32286,7 +32289,7 @@
         <v>185</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32567,7 +32570,7 @@
         <v>1.58</v>
       </c>
       <c r="AT163">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU163">
         <v>1.97</v>
@@ -32758,7 +32761,7 @@
         <v>1.53</v>
       </c>
       <c r="AT164">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU164">
         <v>1.8</v>
@@ -33137,7 +33140,7 @@
         <v>1.14</v>
       </c>
       <c r="AS166">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT166">
         <v>0.42</v>
@@ -34477,7 +34480,7 @@
         <v>1.94</v>
       </c>
       <c r="AT173">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU173">
         <v>1.67</v>
@@ -34578,7 +34581,7 @@
         <v>157</v>
       </c>
       <c r="P174" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -35050,7 +35053,7 @@
         <v>1.78</v>
       </c>
       <c r="AT176">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU176">
         <v>1.59</v>
@@ -35238,7 +35241,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT177">
         <v>0.5</v>
@@ -35533,7 +35536,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35915,7 +35918,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q181">
         <v>8</v>
@@ -36002,7 +36005,7 @@
         <v>1.44</v>
       </c>
       <c r="AS181">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -37061,7 +37064,7 @@
         <v>161</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>3</v>
@@ -38676,10 +38679,10 @@
         <v>0.9</v>
       </c>
       <c r="AS195">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT195">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU195">
         <v>2.33</v>
@@ -38780,7 +38783,7 @@
         <v>131</v>
       </c>
       <c r="P196" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38867,7 +38870,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT196">
         <v>1.22</v>
@@ -39353,7 +39356,7 @@
         <v>205</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39443,7 +39446,7 @@
         <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -39544,7 +39547,7 @@
         <v>206</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q200">
         <v>12</v>
@@ -41645,7 +41648,7 @@
         <v>212</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42499,7 +42502,7 @@
         <v>1.78</v>
       </c>
       <c r="AT215">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU215">
         <v>1.63</v>
@@ -42982,7 +42985,7 @@
         <v>119</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43746,7 +43749,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -44024,7 +44027,7 @@
         <v>0.64</v>
       </c>
       <c r="AS223">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT223">
         <v>0.53</v>
@@ -44409,7 +44412,7 @@
         <v>1.53</v>
       </c>
       <c r="AT225">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU225">
         <v>1.85</v>
@@ -44510,7 +44513,7 @@
         <v>121</v>
       </c>
       <c r="P226" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q226">
         <v>1</v>
@@ -45083,7 +45086,7 @@
         <v>221</v>
       </c>
       <c r="P229" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -45170,7 +45173,7 @@
         <v>1</v>
       </c>
       <c r="AS229">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT229">
         <v>0.95</v>
@@ -45274,7 +45277,7 @@
         <v>222</v>
       </c>
       <c r="P230" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -46128,7 +46131,7 @@
         <v>1.26</v>
       </c>
       <c r="AT234">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU234">
         <v>1.77</v>
@@ -46229,7 +46232,7 @@
         <v>85</v>
       </c>
       <c r="P235" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q235">
         <v>4</v>
@@ -48521,7 +48524,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -48608,7 +48611,7 @@
         <v>0.55</v>
       </c>
       <c r="AS247">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT247">
         <v>0.95</v>
@@ -48993,7 +48996,7 @@
         <v>1.42</v>
       </c>
       <c r="AT249">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU249">
         <v>1.64</v>
@@ -49094,7 +49097,7 @@
         <v>234</v>
       </c>
       <c r="P250" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q250">
         <v>6</v>
@@ -49285,7 +49288,7 @@
         <v>235</v>
       </c>
       <c r="P251" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -49372,7 +49375,7 @@
         <v>1.58</v>
       </c>
       <c r="AS251">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT251">
         <v>1.58</v>
@@ -49948,7 +49951,7 @@
         <v>1.58</v>
       </c>
       <c r="AT254">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU254">
         <v>1.96</v>
@@ -50136,7 +50139,7 @@
         <v>1</v>
       </c>
       <c r="AS255">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT255">
         <v>1.11</v>
@@ -51386,7 +51389,7 @@
         <v>94</v>
       </c>
       <c r="P262" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q262">
         <v>12</v>
@@ -51768,7 +51771,7 @@
         <v>240</v>
       </c>
       <c r="P264" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q264">
         <v>2</v>
@@ -52813,7 +52816,7 @@
         <v>1.89</v>
       </c>
       <c r="AT269">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU269">
         <v>1.46</v>
@@ -53383,7 +53386,7 @@
         <v>1.14</v>
       </c>
       <c r="AS272">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT272">
         <v>1.11</v>
@@ -53574,7 +53577,7 @@
         <v>0.92</v>
       </c>
       <c r="AS273">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT273">
         <v>0.95</v>
@@ -54723,7 +54726,7 @@
         <v>1.42</v>
       </c>
       <c r="AT279">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU279">
         <v>1.7</v>
@@ -55588,7 +55591,7 @@
         <v>254</v>
       </c>
       <c r="P284" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q284">
         <v>6</v>
@@ -56248,10 +56251,10 @@
         <v>0.64</v>
       </c>
       <c r="AS287">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT287">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU287">
         <v>1.85</v>
@@ -56925,7 +56928,7 @@
         <v>258</v>
       </c>
       <c r="P291" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57012,7 +57015,7 @@
         <v>0.93</v>
       </c>
       <c r="AS291">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT291">
         <v>0.9399999999999999</v>
@@ -58835,7 +58838,7 @@
         <v>89</v>
       </c>
       <c r="P301" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q301">
         <v>4</v>
@@ -59113,7 +59116,7 @@
         <v>0.6</v>
       </c>
       <c r="AS302">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT302">
         <v>0.67</v>
@@ -59790,7 +59793,7 @@
         <v>117</v>
       </c>
       <c r="P306" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -59877,7 +59880,7 @@
         <v>0.33</v>
       </c>
       <c r="AS306">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT306">
         <v>0.63</v>
@@ -60071,7 +60074,7 @@
         <v>1.63</v>
       </c>
       <c r="AT307">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU307">
         <v>1.68</v>
@@ -60262,7 +60265,7 @@
         <v>2</v>
       </c>
       <c r="AT308">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU308">
         <v>1.67</v>
@@ -60363,7 +60366,7 @@
         <v>266</v>
       </c>
       <c r="P309" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q309">
         <v>12</v>
@@ -60936,7 +60939,7 @@
         <v>233</v>
       </c>
       <c r="P312" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q312">
         <v>7</v>
@@ -61127,7 +61130,7 @@
         <v>269</v>
       </c>
       <c r="P313" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q313">
         <v>13</v>
@@ -61700,7 +61703,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q316">
         <v>12</v>
@@ -62464,7 +62467,7 @@
         <v>89</v>
       </c>
       <c r="P320" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -63037,7 +63040,7 @@
         <v>274</v>
       </c>
       <c r="P323" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q323">
         <v>7</v>
@@ -63127,7 +63130,7 @@
         <v>2.39</v>
       </c>
       <c r="AT323">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU323">
         <v>1.73</v>
@@ -63228,7 +63231,7 @@
         <v>275</v>
       </c>
       <c r="P324" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q324">
         <v>1</v>
@@ -63610,7 +63613,7 @@
         <v>276</v>
       </c>
       <c r="P326" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q326">
         <v>3</v>
@@ -63888,7 +63891,7 @@
         <v>0.63</v>
       </c>
       <c r="AS327">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT327">
         <v>0.72</v>
@@ -64183,7 +64186,7 @@
         <v>278</v>
       </c>
       <c r="P329" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -64270,7 +64273,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS329">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT329">
         <v>0.5</v>
@@ -64374,7 +64377,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -65419,7 +65422,7 @@
         <v>2.16</v>
       </c>
       <c r="AT335">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU335">
         <v>1.92</v>
@@ -66093,7 +66096,7 @@
         <v>205</v>
       </c>
       <c r="P339" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q339">
         <v>7</v>
@@ -67138,7 +67141,7 @@
         <v>1.33</v>
       </c>
       <c r="AT344">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU344">
         <v>1.65</v>
@@ -67902,7 +67905,7 @@
         <v>1.89</v>
       </c>
       <c r="AT348">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AU348">
         <v>1.41</v>
@@ -68472,7 +68475,7 @@
         <v>1</v>
       </c>
       <c r="AS351">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AT351">
         <v>1</v>
@@ -68576,7 +68579,7 @@
         <v>289</v>
       </c>
       <c r="P352" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q352">
         <v>9</v>
@@ -68958,7 +68961,7 @@
         <v>89</v>
       </c>
       <c r="P354" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q354">
         <v>9</v>
@@ -69149,7 +69152,7 @@
         <v>290</v>
       </c>
       <c r="P355" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q355">
         <v>8</v>
@@ -70295,7 +70298,7 @@
         <v>89</v>
       </c>
       <c r="P361" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70382,7 +70385,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS361">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT361">
         <v>1.05</v>
@@ -70868,7 +70871,7 @@
         <v>295</v>
       </c>
       <c r="P364" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q364">
         <v>10</v>
@@ -71059,7 +71062,7 @@
         <v>296</v>
       </c>
       <c r="P365" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q365">
         <v>6</v>
@@ -71441,7 +71444,7 @@
         <v>298</v>
       </c>
       <c r="P367" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q367">
         <v>2</v>
@@ -71632,7 +71635,7 @@
         <v>299</v>
       </c>
       <c r="P368" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q368">
         <v>4</v>
@@ -71823,7 +71826,7 @@
         <v>89</v>
       </c>
       <c r="P369" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q369">
         <v>8</v>
@@ -72014,7 +72017,7 @@
         <v>300</v>
       </c>
       <c r="P370" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72140,22 +72143,22 @@
         <v>2.42</v>
       </c>
       <c r="BF370">
+        <v>6</v>
+      </c>
+      <c r="BG370">
         <v>4</v>
       </c>
-      <c r="BG370">
-        <v>2</v>
-      </c>
       <c r="BH370">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI370">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ370">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BK370">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:63">
@@ -72331,22 +72334,404 @@
         <v>2.25</v>
       </c>
       <c r="BF371">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG371">
         <v>3</v>
       </c>
       <c r="BH371">
+        <v>10</v>
+      </c>
+      <c r="BI371">
+        <v>10</v>
+      </c>
+      <c r="BJ371">
+        <v>16</v>
+      </c>
+      <c r="BK371">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>1590617</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>44868.83333333334</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>76</v>
+      </c>
+      <c r="H372" t="s">
+        <v>65</v>
+      </c>
+      <c r="I372">
+        <v>2</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>2</v>
+      </c>
+      <c r="L372">
+        <v>3</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>3</v>
+      </c>
+      <c r="O372" t="s">
+        <v>301</v>
+      </c>
+      <c r="P372" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q372">
         <v>6</v>
       </c>
-      <c r="BI371">
+      <c r="R372">
+        <v>2</v>
+      </c>
+      <c r="S372">
+        <v>8</v>
+      </c>
+      <c r="T372">
+        <v>1.99</v>
+      </c>
+      <c r="U372">
+        <v>2.31</v>
+      </c>
+      <c r="V372">
+        <v>8.52</v>
+      </c>
+      <c r="W372">
+        <v>1.45</v>
+      </c>
+      <c r="X372">
+        <v>2.78</v>
+      </c>
+      <c r="Y372">
+        <v>3.28</v>
+      </c>
+      <c r="Z372">
+        <v>1.35</v>
+      </c>
+      <c r="AA372">
+        <v>7.9</v>
+      </c>
+      <c r="AB372">
+        <v>1.06</v>
+      </c>
+      <c r="AC372">
+        <v>1.33</v>
+      </c>
+      <c r="AD372">
+        <v>4.6</v>
+      </c>
+      <c r="AE372">
+        <v>9</v>
+      </c>
+      <c r="AF372">
+        <v>1.03</v>
+      </c>
+      <c r="AG372">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH372">
+        <v>1.34</v>
+      </c>
+      <c r="AI372">
+        <v>2.98</v>
+      </c>
+      <c r="AJ372">
+        <v>2</v>
+      </c>
+      <c r="AK372">
+        <v>1.7</v>
+      </c>
+      <c r="AL372">
+        <v>2.51</v>
+      </c>
+      <c r="AM372">
+        <v>1.53</v>
+      </c>
+      <c r="AN372">
+        <v>1.07</v>
+      </c>
+      <c r="AO372">
+        <v>1.15</v>
+      </c>
+      <c r="AP372">
+        <v>2.3</v>
+      </c>
+      <c r="AQ372">
+        <v>2.33</v>
+      </c>
+      <c r="AR372">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS372">
+        <v>2.37</v>
+      </c>
+      <c r="AT372">
+        <v>0.53</v>
+      </c>
+      <c r="AU372">
+        <v>2.12</v>
+      </c>
+      <c r="AV372">
+        <v>1.34</v>
+      </c>
+      <c r="AW372">
+        <v>3.46</v>
+      </c>
+      <c r="AX372">
+        <v>1.13</v>
+      </c>
+      <c r="AY372">
+        <v>12.5</v>
+      </c>
+      <c r="AZ372">
+        <v>7.8</v>
+      </c>
+      <c r="BA372">
+        <v>1.21</v>
+      </c>
+      <c r="BB372">
+        <v>1.35</v>
+      </c>
+      <c r="BC372">
+        <v>1.7</v>
+      </c>
+      <c r="BD372">
+        <v>2.08</v>
+      </c>
+      <c r="BE372">
+        <v>2.76</v>
+      </c>
+      <c r="BF372">
+        <v>10</v>
+      </c>
+      <c r="BG372">
+        <v>4</v>
+      </c>
+      <c r="BH372">
+        <v>13</v>
+      </c>
+      <c r="BI372">
+        <v>4</v>
+      </c>
+      <c r="BJ372">
+        <v>23</v>
+      </c>
+      <c r="BK372">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>1590613</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>44869.89583333334</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>77</v>
+      </c>
+      <c r="H373" t="s">
+        <v>69</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>89</v>
+      </c>
+      <c r="P373" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q373">
+        <v>3</v>
+      </c>
+      <c r="R373">
+        <v>3</v>
+      </c>
+      <c r="S373">
+        <v>6</v>
+      </c>
+      <c r="T373">
+        <v>3.3</v>
+      </c>
+      <c r="U373">
+        <v>2</v>
+      </c>
+      <c r="V373">
+        <v>3.1</v>
+      </c>
+      <c r="W373">
+        <v>1.46</v>
+      </c>
+      <c r="X373">
+        <v>2.6</v>
+      </c>
+      <c r="Y373">
+        <v>3.14</v>
+      </c>
+      <c r="Z373">
+        <v>1.33</v>
+      </c>
+      <c r="AA373">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB373">
+        <v>1.05</v>
+      </c>
+      <c r="AC373">
+        <v>3</v>
+      </c>
+      <c r="AD373">
+        <v>3.05</v>
+      </c>
+      <c r="AE373">
+        <v>2.35</v>
+      </c>
+      <c r="AF373">
+        <v>1.08</v>
+      </c>
+      <c r="AG373">
         <v>7</v>
       </c>
-      <c r="BJ371">
-        <v>13</v>
-      </c>
-      <c r="BK371">
-        <v>10</v>
+      <c r="AH373">
+        <v>1.4</v>
+      </c>
+      <c r="AI373">
+        <v>2.75</v>
+      </c>
+      <c r="AJ373">
+        <v>2.2</v>
+      </c>
+      <c r="AK373">
+        <v>1.6</v>
+      </c>
+      <c r="AL373">
+        <v>1.88</v>
+      </c>
+      <c r="AM373">
+        <v>1.88</v>
+      </c>
+      <c r="AN373">
+        <v>1.53</v>
+      </c>
+      <c r="AO373">
+        <v>1.35</v>
+      </c>
+      <c r="AP373">
+        <v>1.36</v>
+      </c>
+      <c r="AQ373">
+        <v>1.22</v>
+      </c>
+      <c r="AR373">
+        <v>0.83</v>
+      </c>
+      <c r="AS373">
+        <v>1.16</v>
+      </c>
+      <c r="AT373">
+        <v>0.95</v>
+      </c>
+      <c r="AU373">
+        <v>1.75</v>
+      </c>
+      <c r="AV373">
+        <v>1.42</v>
+      </c>
+      <c r="AW373">
+        <v>3.17</v>
+      </c>
+      <c r="AX373">
+        <v>2.2</v>
+      </c>
+      <c r="AY373">
+        <v>5.75</v>
+      </c>
+      <c r="AZ373">
+        <v>1.83</v>
+      </c>
+      <c r="BA373">
+        <v>1.17</v>
+      </c>
+      <c r="BB373">
+        <v>1.29</v>
+      </c>
+      <c r="BC373">
+        <v>1.61</v>
+      </c>
+      <c r="BD373">
+        <v>1.96</v>
+      </c>
+      <c r="BE373">
+        <v>2.41</v>
+      </c>
+      <c r="BF373">
+        <v>0</v>
+      </c>
+      <c r="BG373">
+        <v>3</v>
+      </c>
+      <c r="BH373">
+        <v>4</v>
+      </c>
+      <c r="BI373">
+        <v>0</v>
+      </c>
+      <c r="BJ373">
+        <v>4</v>
+      </c>
+      <c r="BK373">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,18 @@
     <t>['19', '45+3', '75']</t>
   </si>
   <si>
+    <t>['19', '53']</t>
+  </si>
+  <si>
+    <t>['47', '52']</t>
+  </si>
+  <si>
+    <t>['40', '89', '90+1']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['76']</t>
   </si>
   <si>
@@ -1124,6 +1136,15 @@
   </si>
   <si>
     <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['22', '81']</t>
+  </si>
+  <si>
+    <t>['26', '80']</t>
+  </si>
+  <si>
+    <t>['19', '45+2', '66']</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK373"/>
+  <dimension ref="A1:BK381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,7 +2323,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -3344,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT10">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3535,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT11">
         <v>0.53</v>
@@ -3726,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3920,7 +3941,7 @@
         <v>2.37</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4111,7 +4132,7 @@
         <v>1.16</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4299,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT15">
         <v>0.95</v>
@@ -4490,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT16">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4681,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4872,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5063,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT19">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5448,7 +5469,7 @@
         <v>1.63</v>
       </c>
       <c r="AT21">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU21">
         <v>1.95</v>
@@ -5639,7 +5660,7 @@
         <v>1.53</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5830,7 +5851,7 @@
         <v>1.42</v>
       </c>
       <c r="AT23">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU23">
         <v>1.52</v>
@@ -5931,7 +5952,7 @@
         <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6018,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU24">
         <v>1.34</v>
@@ -6400,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT26">
         <v>0.53</v>
@@ -6591,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT27">
         <v>0.95</v>
@@ -7268,7 +7289,7 @@
         <v>89</v>
       </c>
       <c r="P31" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7358,7 +7379,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7546,10 +7567,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU32">
         <v>1.96</v>
@@ -7740,7 +7761,7 @@
         <v>1.26</v>
       </c>
       <c r="AT33">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU33">
         <v>1.6</v>
@@ -7928,10 +7949,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT34">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU34">
         <v>1.54</v>
@@ -8223,7 +8244,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q36">
         <v>6</v>
@@ -8310,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT36">
         <v>0.42</v>
@@ -8414,7 +8435,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q37">
         <v>8</v>
@@ -8501,7 +8522,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT37">
         <v>1.05</v>
@@ -8692,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT38">
         <v>0.95</v>
@@ -8987,7 +9008,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -9265,10 +9286,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU41">
         <v>2.02</v>
@@ -9459,7 +9480,7 @@
         <v>1.53</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU42">
         <v>2.52</v>
@@ -9560,7 +9581,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9647,7 +9668,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT43">
         <v>0.53</v>
@@ -9942,7 +9963,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q45">
         <v>7</v>
@@ -10411,10 +10432,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU47">
         <v>1.65</v>
@@ -10605,7 +10626,7 @@
         <v>1.89</v>
       </c>
       <c r="AT48">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU48">
         <v>1.55</v>
@@ -10796,7 +10817,7 @@
         <v>2.16</v>
       </c>
       <c r="AT49">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU49">
         <v>1.67</v>
@@ -11560,7 +11581,7 @@
         <v>1.26</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU53">
         <v>1.87</v>
@@ -11748,7 +11769,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT54">
         <v>0.42</v>
@@ -11942,7 +11963,7 @@
         <v>2.32</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU55">
         <v>1.74</v>
@@ -12130,7 +12151,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT56">
         <v>0.95</v>
@@ -12324,7 +12345,7 @@
         <v>2.21</v>
       </c>
       <c r="AT57">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU57">
         <v>1.61</v>
@@ -12703,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT59">
         <v>1.05</v>
@@ -12894,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT60">
         <v>0.95</v>
@@ -13085,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT61">
         <v>0.63</v>
@@ -13279,7 +13300,7 @@
         <v>1.63</v>
       </c>
       <c r="AT62">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13470,7 +13491,7 @@
         <v>1.42</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU63">
         <v>1.45</v>
@@ -13658,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>0.95</v>
@@ -13953,7 +13974,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14231,7 +14252,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT67">
         <v>0.95</v>
@@ -14616,7 +14637,7 @@
         <v>2.21</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU69">
         <v>1.55</v>
@@ -14995,7 +15016,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
         <v>1.05</v>
@@ -15189,7 +15210,7 @@
         <v>1.58</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU72">
         <v>1.71</v>
@@ -15377,10 +15398,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT73">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU73">
         <v>1.55</v>
@@ -15568,10 +15589,10 @@
         <v>2.33</v>
       </c>
       <c r="AS74">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU74">
         <v>1.66</v>
@@ -15950,10 +15971,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT76">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU76">
         <v>1.71</v>
@@ -16144,7 +16165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT77">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU77">
         <v>2.33</v>
@@ -16335,7 +16356,7 @@
         <v>1.26</v>
       </c>
       <c r="AT78">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU78">
         <v>1.69</v>
@@ -16436,7 +16457,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16627,7 +16648,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16714,7 +16735,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
         <v>1.11</v>
@@ -16905,7 +16926,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT81">
         <v>0.63</v>
@@ -17290,7 +17311,7 @@
         <v>1.63</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU83">
         <v>1.69</v>
@@ -17860,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT86">
         <v>0.42</v>
@@ -18054,7 +18075,7 @@
         <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU87">
         <v>1.49</v>
@@ -18242,7 +18263,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>1.58</v>
@@ -18436,7 +18457,7 @@
         <v>1.53</v>
       </c>
       <c r="AT89">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU89">
         <v>2.29</v>
@@ -18624,7 +18645,7 @@
         <v>0.5</v>
       </c>
       <c r="AS90">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT90">
         <v>0.95</v>
@@ -18815,7 +18836,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT91">
         <v>1.05</v>
@@ -19006,10 +19027,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT92">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU92">
         <v>1.5</v>
@@ -19492,7 +19513,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -19579,7 +19600,7 @@
         <v>0.5</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT95">
         <v>0.95</v>
@@ -19683,7 +19704,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19770,7 +19791,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT96">
         <v>1.58</v>
@@ -20256,7 +20277,7 @@
         <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20638,7 +20659,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>7</v>
@@ -20725,7 +20746,7 @@
         <v>0.6</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT101">
         <v>0.53</v>
@@ -20829,7 +20850,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>13</v>
@@ -20916,7 +20937,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT102">
         <v>0.53</v>
@@ -21110,7 +21131,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU103">
         <v>1.95</v>
@@ -21211,7 +21232,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21301,7 +21322,7 @@
         <v>1.16</v>
       </c>
       <c r="AT104">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU104">
         <v>2.3</v>
@@ -21489,7 +21510,7 @@
         <v>0.2</v>
       </c>
       <c r="AS105">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>0.63</v>
@@ -21593,7 +21614,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21680,7 +21701,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT106">
         <v>0.95</v>
@@ -21874,7 +21895,7 @@
         <v>1.53</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU107">
         <v>2.02</v>
@@ -22065,7 +22086,7 @@
         <v>2.37</v>
       </c>
       <c r="AT108">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU108">
         <v>2.41</v>
@@ -22253,7 +22274,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT109">
         <v>0.95</v>
@@ -22447,7 +22468,7 @@
         <v>2.16</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU110">
         <v>1.53</v>
@@ -22635,7 +22656,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT111">
         <v>0.42</v>
@@ -22739,7 +22760,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22930,7 +22951,7 @@
         <v>89</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23121,7 +23142,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23211,7 +23232,7 @@
         <v>1.63</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU114">
         <v>1.64</v>
@@ -23399,7 +23420,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT115">
         <v>0.95</v>
@@ -23590,10 +23611,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU116">
         <v>1.85</v>
@@ -23694,7 +23715,7 @@
         <v>111</v>
       </c>
       <c r="P117" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q117">
         <v>12</v>
@@ -24076,7 +24097,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24166,7 +24187,7 @@
         <v>1.89</v>
       </c>
       <c r="AT119">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -24548,7 +24569,7 @@
         <v>2.16</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU121">
         <v>1.55</v>
@@ -24736,7 +24757,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT122">
         <v>0.95</v>
@@ -24927,7 +24948,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT123">
         <v>0.53</v>
@@ -25118,7 +25139,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>0.53</v>
@@ -25309,7 +25330,7 @@
         <v>0.67</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT125">
         <v>1.11</v>
@@ -25604,7 +25625,7 @@
         <v>166</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q127">
         <v>13</v>
@@ -25694,7 +25715,7 @@
         <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU127">
         <v>1.87</v>
@@ -25885,7 +25906,7 @@
         <v>1.63</v>
       </c>
       <c r="AT128">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU128">
         <v>1.95</v>
@@ -26076,7 +26097,7 @@
         <v>1.16</v>
       </c>
       <c r="AT129">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU129">
         <v>2.24</v>
@@ -26264,10 +26285,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT130">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU130">
         <v>1.66</v>
@@ -26368,7 +26389,7 @@
         <v>168</v>
       </c>
       <c r="P131" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -26750,7 +26771,7 @@
         <v>169</v>
       </c>
       <c r="P133" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27410,7 +27431,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>0.95</v>
@@ -27604,7 +27625,7 @@
         <v>2.16</v>
       </c>
       <c r="AT137">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU137">
         <v>1.72</v>
@@ -28174,10 +28195,10 @@
         <v>0.57</v>
       </c>
       <c r="AS140">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT140">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU140">
         <v>2.02</v>
@@ -28278,7 +28299,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28365,10 +28386,10 @@
         <v>1.86</v>
       </c>
       <c r="AS141">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU141">
         <v>1.76</v>
@@ -28559,7 +28580,7 @@
         <v>2.37</v>
       </c>
       <c r="AT142">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU142">
         <v>2.27</v>
@@ -28660,7 +28681,7 @@
         <v>89</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28750,7 +28771,7 @@
         <v>1.26</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU143">
         <v>1.76</v>
@@ -28938,7 +28959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS144">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT144">
         <v>0.95</v>
@@ -29129,10 +29150,10 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT145">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU145">
         <v>2.06</v>
@@ -29233,7 +29254,7 @@
         <v>89</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29320,7 +29341,7 @@
         <v>0.71</v>
       </c>
       <c r="AS146">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT146">
         <v>1.11</v>
@@ -29424,7 +29445,7 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29702,10 +29723,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT148">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU148">
         <v>1.57</v>
@@ -29896,7 +29917,7 @@
         <v>1.58</v>
       </c>
       <c r="AT149">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU149">
         <v>1.92</v>
@@ -30275,7 +30296,7 @@
         <v>0.43</v>
       </c>
       <c r="AS151">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT151">
         <v>0.95</v>
@@ -30660,7 +30681,7 @@
         <v>1.63</v>
       </c>
       <c r="AT153">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU153">
         <v>1.86</v>
@@ -30761,7 +30782,7 @@
         <v>135</v>
       </c>
       <c r="P154" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30848,7 +30869,7 @@
         <v>0.86</v>
       </c>
       <c r="AS154">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT154">
         <v>0.95</v>
@@ -31042,7 +31063,7 @@
         <v>1.16</v>
       </c>
       <c r="AT155">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU155">
         <v>2.07</v>
@@ -31230,7 +31251,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT156">
         <v>0.95</v>
@@ -31424,7 +31445,7 @@
         <v>1.63</v>
       </c>
       <c r="AT157">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU157">
         <v>1.71</v>
@@ -31806,7 +31827,7 @@
         <v>2.21</v>
       </c>
       <c r="AT159">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU159">
         <v>1.49</v>
@@ -31907,7 +31928,7 @@
         <v>89</v>
       </c>
       <c r="P160" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -31997,7 +32018,7 @@
         <v>1.42</v>
       </c>
       <c r="AT160">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU160">
         <v>1.76</v>
@@ -32185,7 +32206,7 @@
         <v>1.86</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT161">
         <v>1.58</v>
@@ -32289,7 +32310,7 @@
         <v>185</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32376,7 +32397,7 @@
         <v>0.86</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT162">
         <v>0.95</v>
@@ -32949,10 +32970,10 @@
         <v>1.43</v>
       </c>
       <c r="AS165">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU165">
         <v>1.78</v>
@@ -33331,7 +33352,7 @@
         <v>1.75</v>
       </c>
       <c r="AS167">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT167">
         <v>1.58</v>
@@ -33525,7 +33546,7 @@
         <v>2.32</v>
       </c>
       <c r="AT168">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU168">
         <v>2.01</v>
@@ -33713,10 +33734,10 @@
         <v>1.43</v>
       </c>
       <c r="AS169">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT169">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU169">
         <v>1.56</v>
@@ -33907,7 +33928,7 @@
         <v>1.89</v>
       </c>
       <c r="AT170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU170">
         <v>1.68</v>
@@ -34095,7 +34116,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT171">
         <v>1.11</v>
@@ -34286,10 +34307,10 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT172">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU172">
         <v>1.72</v>
@@ -34477,7 +34498,7 @@
         <v>0.89</v>
       </c>
       <c r="AS173">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT173">
         <v>0.95</v>
@@ -34581,7 +34602,7 @@
         <v>157</v>
       </c>
       <c r="P174" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34668,10 +34689,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS174">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT174">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU174">
         <v>1.8</v>
@@ -34859,10 +34880,10 @@
         <v>0.75</v>
       </c>
       <c r="AS175">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT175">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU175">
         <v>1.75</v>
@@ -35050,7 +35071,7 @@
         <v>0.78</v>
       </c>
       <c r="AS176">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT176">
         <v>0.53</v>
@@ -35244,7 +35265,7 @@
         <v>2.37</v>
       </c>
       <c r="AT177">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU177">
         <v>2.32</v>
@@ -35432,10 +35453,10 @@
         <v>1.63</v>
       </c>
       <c r="AS178">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT178">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU178">
         <v>1.92</v>
@@ -35536,7 +35557,7 @@
         <v>89</v>
       </c>
       <c r="P179" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35623,10 +35644,10 @@
         <v>1.38</v>
       </c>
       <c r="AS179">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU179">
         <v>1.63</v>
@@ -35814,10 +35835,10 @@
         <v>1.13</v>
       </c>
       <c r="AS180">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT180">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU180">
         <v>2.17</v>
@@ -35918,7 +35939,7 @@
         <v>194</v>
       </c>
       <c r="P181" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q181">
         <v>8</v>
@@ -36008,7 +36029,7 @@
         <v>1.16</v>
       </c>
       <c r="AT181">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU181">
         <v>2.04</v>
@@ -37064,7 +37085,7 @@
         <v>161</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q187">
         <v>3</v>
@@ -38106,10 +38127,10 @@
         <v>0.9</v>
       </c>
       <c r="AS192">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT192">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU192">
         <v>1.9</v>
@@ -38297,10 +38318,10 @@
         <v>1.56</v>
       </c>
       <c r="AS193">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU193">
         <v>2.1</v>
@@ -38488,10 +38509,10 @@
         <v>1.44</v>
       </c>
       <c r="AS194">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT194">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU194">
         <v>1.81</v>
@@ -38783,7 +38804,7 @@
         <v>131</v>
       </c>
       <c r="P196" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q196">
         <v>7</v>
@@ -38873,7 +38894,7 @@
         <v>1.16</v>
       </c>
       <c r="AT196">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU196">
         <v>2.04</v>
@@ -39061,10 +39082,10 @@
         <v>1.6</v>
       </c>
       <c r="AS197">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT197">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU197">
         <v>1.72</v>
@@ -39252,10 +39273,10 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT198">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU198">
         <v>1.61</v>
@@ -39356,7 +39377,7 @@
         <v>205</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>7</v>
@@ -39443,7 +39464,7 @@
         <v>0.8</v>
       </c>
       <c r="AS199">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT199">
         <v>0.53</v>
@@ -39547,7 +39568,7 @@
         <v>206</v>
       </c>
       <c r="P200" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q200">
         <v>12</v>
@@ -39634,10 +39655,10 @@
         <v>0.8</v>
       </c>
       <c r="AS200">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT200">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU200">
         <v>1.73</v>
@@ -39825,10 +39846,10 @@
         <v>0.89</v>
       </c>
       <c r="AS201">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT201">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU201">
         <v>1.66</v>
@@ -41648,7 +41669,7 @@
         <v>212</v>
       </c>
       <c r="P211" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41929,7 +41950,7 @@
         <v>2.21</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU212">
         <v>1.57</v>
@@ -42499,7 +42520,7 @@
         <v>0.82</v>
       </c>
       <c r="AS215">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT215">
         <v>0.95</v>
@@ -42690,7 +42711,7 @@
         <v>0.8</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT216">
         <v>0.42</v>
@@ -42881,7 +42902,7 @@
         <v>1.09</v>
       </c>
       <c r="AS217">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT217">
         <v>1.11</v>
@@ -42985,7 +43006,7 @@
         <v>119</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43072,7 +43093,7 @@
         <v>1.09</v>
       </c>
       <c r="AS218">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT218">
         <v>1.05</v>
@@ -43266,7 +43287,7 @@
         <v>2.16</v>
       </c>
       <c r="AT219">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU219">
         <v>1.76</v>
@@ -43457,7 +43478,7 @@
         <v>1.58</v>
       </c>
       <c r="AT220">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU220">
         <v>2.02</v>
@@ -43645,10 +43666,10 @@
         <v>0.9</v>
       </c>
       <c r="AS221">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT221">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU221">
         <v>2.07</v>
@@ -43749,7 +43770,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43836,10 +43857,10 @@
         <v>0.82</v>
       </c>
       <c r="AS222">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT222">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU222">
         <v>1.73</v>
@@ -44221,7 +44242,7 @@
         <v>1.63</v>
       </c>
       <c r="AT224">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU224">
         <v>1.8</v>
@@ -44513,7 +44534,7 @@
         <v>121</v>
       </c>
       <c r="P226" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q226">
         <v>1</v>
@@ -44791,10 +44812,10 @@
         <v>1.4</v>
       </c>
       <c r="AS227">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT227">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU227">
         <v>1.88</v>
@@ -45086,7 +45107,7 @@
         <v>221</v>
       </c>
       <c r="P229" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q229">
         <v>8</v>
@@ -45277,7 +45298,7 @@
         <v>222</v>
       </c>
       <c r="P230" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q230">
         <v>5</v>
@@ -45367,7 +45388,7 @@
         <v>1.42</v>
       </c>
       <c r="AT230">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU230">
         <v>1.67</v>
@@ -45555,7 +45576,7 @@
         <v>0.7</v>
       </c>
       <c r="AS231">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT231">
         <v>0.95</v>
@@ -45746,10 +45767,10 @@
         <v>1.18</v>
       </c>
       <c r="AS232">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT232">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU232">
         <v>1.76</v>
@@ -46232,7 +46253,7 @@
         <v>85</v>
       </c>
       <c r="P235" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q235">
         <v>4</v>
@@ -46319,7 +46340,7 @@
         <v>0.25</v>
       </c>
       <c r="AS235">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT235">
         <v>0.63</v>
@@ -46513,7 +46534,7 @@
         <v>2.21</v>
       </c>
       <c r="AT236">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU236">
         <v>1.59</v>
@@ -46704,7 +46725,7 @@
         <v>2.32</v>
       </c>
       <c r="AT237">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU237">
         <v>1.79</v>
@@ -46892,10 +46913,10 @@
         <v>1.42</v>
       </c>
       <c r="AS238">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT238">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU238">
         <v>2.1</v>
@@ -47083,7 +47104,7 @@
         <v>0.73</v>
       </c>
       <c r="AS239">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT239">
         <v>0.42</v>
@@ -47274,7 +47295,7 @@
         <v>1.25</v>
       </c>
       <c r="AS240">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT240">
         <v>1.05</v>
@@ -47659,7 +47680,7 @@
         <v>1.63</v>
       </c>
       <c r="AT242">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU242">
         <v>1.69</v>
@@ -47847,7 +47868,7 @@
         <v>0.58</v>
       </c>
       <c r="AS243">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT243">
         <v>0.53</v>
@@ -48041,7 +48062,7 @@
         <v>1.53</v>
       </c>
       <c r="AT244">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU244">
         <v>1.87</v>
@@ -48232,7 +48253,7 @@
         <v>1.89</v>
       </c>
       <c r="AT245">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU245">
         <v>1.48</v>
@@ -48420,10 +48441,10 @@
         <v>0.91</v>
       </c>
       <c r="AS246">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT246">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU246">
         <v>1.68</v>
@@ -48524,7 +48545,7 @@
         <v>233</v>
       </c>
       <c r="P247" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -49097,7 +49118,7 @@
         <v>234</v>
       </c>
       <c r="P250" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q250">
         <v>6</v>
@@ -49184,7 +49205,7 @@
         <v>0.91</v>
       </c>
       <c r="AS250">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT250">
         <v>0.95</v>
@@ -49288,7 +49309,7 @@
         <v>235</v>
       </c>
       <c r="P251" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q251">
         <v>7</v>
@@ -49569,7 +49590,7 @@
         <v>2.32</v>
       </c>
       <c r="AT252">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU252">
         <v>1.84</v>
@@ -49757,7 +49778,7 @@
         <v>0.31</v>
       </c>
       <c r="AS253">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT253">
         <v>0.63</v>
@@ -50333,7 +50354,7 @@
         <v>1.26</v>
       </c>
       <c r="AT256">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU256">
         <v>1.77</v>
@@ -50521,7 +50542,7 @@
         <v>0.67</v>
       </c>
       <c r="AS257">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT257">
         <v>0.42</v>
@@ -50712,10 +50733,10 @@
         <v>0.75</v>
       </c>
       <c r="AS258">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT258">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU258">
         <v>1.6</v>
@@ -50903,7 +50924,7 @@
         <v>0.92</v>
       </c>
       <c r="AS259">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT259">
         <v>0.95</v>
@@ -51094,10 +51115,10 @@
         <v>0.62</v>
       </c>
       <c r="AS260">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT260">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU260">
         <v>1.64</v>
@@ -51288,7 +51309,7 @@
         <v>2.16</v>
       </c>
       <c r="AT261">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU261">
         <v>1.79</v>
@@ -51389,7 +51410,7 @@
         <v>94</v>
       </c>
       <c r="P262" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q262">
         <v>12</v>
@@ -51771,7 +51792,7 @@
         <v>240</v>
       </c>
       <c r="P264" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q264">
         <v>2</v>
@@ -51858,7 +51879,7 @@
         <v>1.54</v>
       </c>
       <c r="AS264">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT264">
         <v>1.58</v>
@@ -52052,7 +52073,7 @@
         <v>2.32</v>
       </c>
       <c r="AT265">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU265">
         <v>1.83</v>
@@ -52240,7 +52261,7 @@
         <v>0.54</v>
       </c>
       <c r="AS266">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT266">
         <v>0.53</v>
@@ -52622,7 +52643,7 @@
         <v>1.15</v>
       </c>
       <c r="AS268">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT268">
         <v>1.05</v>
@@ -53198,7 +53219,7 @@
         <v>1.63</v>
       </c>
       <c r="AT271">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU271">
         <v>1.79</v>
@@ -53771,7 +53792,7 @@
         <v>1.58</v>
       </c>
       <c r="AT274">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU274">
         <v>1.99</v>
@@ -53959,7 +53980,7 @@
         <v>0.36</v>
       </c>
       <c r="AS275">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT275">
         <v>0.63</v>
@@ -54153,7 +54174,7 @@
         <v>1.26</v>
       </c>
       <c r="AT276">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU276">
         <v>1.8</v>
@@ -54341,10 +54362,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS277">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT277">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU277">
         <v>1.51</v>
@@ -54535,7 +54556,7 @@
         <v>2.16</v>
       </c>
       <c r="AT278">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU278">
         <v>1.83</v>
@@ -54914,10 +54935,10 @@
         <v>1.31</v>
       </c>
       <c r="AS280">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT280">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU280">
         <v>1.6</v>
@@ -55105,7 +55126,7 @@
         <v>0.92</v>
       </c>
       <c r="AS281">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT281">
         <v>0.95</v>
@@ -55296,7 +55317,7 @@
         <v>0.62</v>
       </c>
       <c r="AS282">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT282">
         <v>0.95</v>
@@ -55490,7 +55511,7 @@
         <v>1.63</v>
       </c>
       <c r="AT283">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU283">
         <v>1.78</v>
@@ -55591,7 +55612,7 @@
         <v>254</v>
       </c>
       <c r="P284" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q284">
         <v>6</v>
@@ -55678,10 +55699,10 @@
         <v>0.77</v>
       </c>
       <c r="AS284">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT284">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU284">
         <v>1.75</v>
@@ -55869,10 +55890,10 @@
         <v>1.15</v>
       </c>
       <c r="AS285">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT285">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU285">
         <v>1.88</v>
@@ -56060,7 +56081,7 @@
         <v>0.57</v>
       </c>
       <c r="AS286">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT286">
         <v>0.53</v>
@@ -56442,10 +56463,10 @@
         <v>0.64</v>
       </c>
       <c r="AS288">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT288">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU288">
         <v>1.7</v>
@@ -56827,7 +56848,7 @@
         <v>1.63</v>
       </c>
       <c r="AT290">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU290">
         <v>1.74</v>
@@ -56928,7 +56949,7 @@
         <v>258</v>
       </c>
       <c r="P291" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57018,7 +57039,7 @@
         <v>2.37</v>
       </c>
       <c r="AT291">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU291">
         <v>2.1</v>
@@ -57209,7 +57230,7 @@
         <v>2.32</v>
       </c>
       <c r="AT292">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU292">
         <v>1.88</v>
@@ -57397,7 +57418,7 @@
         <v>0.57</v>
       </c>
       <c r="AS293">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT293">
         <v>0.95</v>
@@ -58164,7 +58185,7 @@
         <v>1.89</v>
       </c>
       <c r="AT297">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU297">
         <v>1.42</v>
@@ -58355,7 +58376,7 @@
         <v>1.42</v>
       </c>
       <c r="AT298">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU298">
         <v>1.71</v>
@@ -58734,7 +58755,7 @@
         <v>0.93</v>
       </c>
       <c r="AS300">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT300">
         <v>0.95</v>
@@ -58838,7 +58859,7 @@
         <v>89</v>
       </c>
       <c r="P301" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q301">
         <v>4</v>
@@ -58925,7 +58946,7 @@
         <v>1.5</v>
       </c>
       <c r="AS301">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT301">
         <v>1.58</v>
@@ -59119,7 +59140,7 @@
         <v>2.37</v>
       </c>
       <c r="AT302">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU302">
         <v>2.07</v>
@@ -59307,10 +59328,10 @@
         <v>0.71</v>
       </c>
       <c r="AS303">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT303">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU303">
         <v>1.62</v>
@@ -59498,10 +59519,10 @@
         <v>0.87</v>
       </c>
       <c r="AS304">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT304">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU304">
         <v>2.14</v>
@@ -59689,7 +59710,7 @@
         <v>1</v>
       </c>
       <c r="AS305">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT305">
         <v>0.95</v>
@@ -59793,7 +59814,7 @@
         <v>117</v>
       </c>
       <c r="P306" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q306">
         <v>4</v>
@@ -60262,7 +60283,7 @@
         <v>0.6</v>
       </c>
       <c r="AS308">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT308">
         <v>0.53</v>
@@ -60366,7 +60387,7 @@
         <v>266</v>
       </c>
       <c r="P309" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q309">
         <v>12</v>
@@ -60644,10 +60665,10 @@
         <v>1.2</v>
       </c>
       <c r="AS310">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT310">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU310">
         <v>1.84</v>
@@ -60838,7 +60859,7 @@
         <v>1.53</v>
       </c>
       <c r="AT311">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU311">
         <v>1.79</v>
@@ -60939,7 +60960,7 @@
         <v>233</v>
       </c>
       <c r="P312" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q312">
         <v>7</v>
@@ -61130,7 +61151,7 @@
         <v>269</v>
       </c>
       <c r="P313" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q313">
         <v>13</v>
@@ -61411,7 +61432,7 @@
         <v>1.89</v>
       </c>
       <c r="AT314">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU314">
         <v>1.39</v>
@@ -61602,7 +61623,7 @@
         <v>2.21</v>
       </c>
       <c r="AT315">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU315">
         <v>1.61</v>
@@ -61703,7 +61724,7 @@
         <v>96</v>
       </c>
       <c r="P316" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q316">
         <v>12</v>
@@ -61981,7 +62002,7 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT317">
         <v>1.05</v>
@@ -62172,7 +62193,7 @@
         <v>1</v>
       </c>
       <c r="AS318">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT318">
         <v>0.95</v>
@@ -62366,7 +62387,7 @@
         <v>1.42</v>
       </c>
       <c r="AT319">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU319">
         <v>1.8</v>
@@ -62467,7 +62488,7 @@
         <v>89</v>
       </c>
       <c r="P320" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -62745,7 +62766,7 @@
         <v>0.93</v>
       </c>
       <c r="AS321">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT321">
         <v>0.95</v>
@@ -62936,10 +62957,10 @@
         <v>1.19</v>
       </c>
       <c r="AS322">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT322">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU322">
         <v>1.6</v>
@@ -63040,7 +63061,7 @@
         <v>274</v>
       </c>
       <c r="P323" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q323">
         <v>7</v>
@@ -63127,7 +63148,7 @@
         <v>0.88</v>
       </c>
       <c r="AS323">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT323">
         <v>0.95</v>
@@ -63231,7 +63252,7 @@
         <v>275</v>
       </c>
       <c r="P324" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q324">
         <v>1</v>
@@ -63318,10 +63339,10 @@
         <v>1.13</v>
       </c>
       <c r="AS324">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT324">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU324">
         <v>1.53</v>
@@ -63512,7 +63533,7 @@
         <v>1.26</v>
       </c>
       <c r="AT325">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU325">
         <v>1.85</v>
@@ -63613,7 +63634,7 @@
         <v>276</v>
       </c>
       <c r="P326" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q326">
         <v>3</v>
@@ -63700,10 +63721,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS326">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT326">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU326">
         <v>1.65</v>
@@ -63894,7 +63915,7 @@
         <v>2.37</v>
       </c>
       <c r="AT327">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU327">
         <v>2.11</v>
@@ -64082,7 +64103,7 @@
         <v>1.06</v>
       </c>
       <c r="AS328">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT328">
         <v>0.95</v>
@@ -64186,7 +64207,7 @@
         <v>278</v>
       </c>
       <c r="P329" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q329">
         <v>4</v>
@@ -64276,7 +64297,7 @@
         <v>1.16</v>
       </c>
       <c r="AT329">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU329">
         <v>1.8</v>
@@ -64377,7 +64398,7 @@
         <v>279</v>
       </c>
       <c r="P330" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q330">
         <v>9</v>
@@ -64467,7 +64488,7 @@
         <v>1.58</v>
       </c>
       <c r="AT330">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU330">
         <v>1.97</v>
@@ -64655,7 +64676,7 @@
         <v>1.06</v>
       </c>
       <c r="AS331">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT331">
         <v>1.11</v>
@@ -64846,7 +64867,7 @@
         <v>0.5</v>
       </c>
       <c r="AS332">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT332">
         <v>0.42</v>
@@ -65801,7 +65822,7 @@
         <v>0.88</v>
       </c>
       <c r="AS337">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT337">
         <v>0.95</v>
@@ -65995,7 +66016,7 @@
         <v>2.21</v>
       </c>
       <c r="AT338">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU338">
         <v>1.63</v>
@@ -66096,7 +66117,7 @@
         <v>205</v>
       </c>
       <c r="P339" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q339">
         <v>7</v>
@@ -66756,7 +66777,7 @@
         <v>1</v>
       </c>
       <c r="AS342">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT342">
         <v>0.95</v>
@@ -66947,10 +66968,10 @@
         <v>1.06</v>
       </c>
       <c r="AS343">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AT343">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU343">
         <v>1.71</v>
@@ -67138,7 +67159,7 @@
         <v>0.53</v>
       </c>
       <c r="AS344">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT344">
         <v>0.53</v>
@@ -67332,7 +67353,7 @@
         <v>1.53</v>
       </c>
       <c r="AT345">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU345">
         <v>1.86</v>
@@ -67520,7 +67541,7 @@
         <v>1.59</v>
       </c>
       <c r="AS346">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT346">
         <v>1.58</v>
@@ -68093,7 +68114,7 @@
         <v>1.06</v>
       </c>
       <c r="AS349">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT349">
         <v>1.11</v>
@@ -68287,7 +68308,7 @@
         <v>2.32</v>
       </c>
       <c r="AT350">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AU350">
         <v>1.81</v>
@@ -68478,7 +68499,7 @@
         <v>2.37</v>
       </c>
       <c r="AT351">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU351">
         <v>2.13</v>
@@ -68579,7 +68600,7 @@
         <v>289</v>
       </c>
       <c r="P352" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q352">
         <v>9</v>
@@ -68669,7 +68690,7 @@
         <v>1.26</v>
       </c>
       <c r="AT352">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU352">
         <v>1.84</v>
@@ -68857,7 +68878,7 @@
         <v>0.82</v>
       </c>
       <c r="AS353">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT353">
         <v>0.95</v>
@@ -68961,7 +68982,7 @@
         <v>89</v>
       </c>
       <c r="P354" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q354">
         <v>9</v>
@@ -69051,7 +69072,7 @@
         <v>1.63</v>
       </c>
       <c r="AT354">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU354">
         <v>1.77</v>
@@ -69152,7 +69173,7 @@
         <v>290</v>
       </c>
       <c r="P355" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q355">
         <v>8</v>
@@ -69242,7 +69263,7 @@
         <v>1.42</v>
       </c>
       <c r="AT355">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU355">
         <v>1.83</v>
@@ -69430,7 +69451,7 @@
         <v>0.59</v>
       </c>
       <c r="AS356">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT356">
         <v>0.53</v>
@@ -69815,7 +69836,7 @@
         <v>1.63</v>
       </c>
       <c r="AT358">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU358">
         <v>1.62</v>
@@ -70003,7 +70024,7 @@
         <v>0.53</v>
       </c>
       <c r="AS359">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT359">
         <v>0.63</v>
@@ -70298,7 +70319,7 @@
         <v>89</v>
       </c>
       <c r="P361" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70871,7 +70892,7 @@
         <v>295</v>
       </c>
       <c r="P364" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q364">
         <v>10</v>
@@ -71062,7 +71083,7 @@
         <v>296</v>
       </c>
       <c r="P365" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q365">
         <v>6</v>
@@ -71444,7 +71465,7 @@
         <v>298</v>
       </c>
       <c r="P367" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q367">
         <v>2</v>
@@ -71635,7 +71656,7 @@
         <v>299</v>
       </c>
       <c r="P368" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q368">
         <v>4</v>
@@ -71826,7 +71847,7 @@
         <v>89</v>
       </c>
       <c r="P369" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q369">
         <v>8</v>
@@ -72017,7 +72038,7 @@
         <v>300</v>
       </c>
       <c r="P370" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q370">
         <v>4</v>
@@ -72593,13 +72614,13 @@
         <v>111</v>
       </c>
       <c r="Q373">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R373">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S373">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T373">
         <v>3.3</v>
@@ -72716,22 +72737,1550 @@
         <v>2.41</v>
       </c>
       <c r="BF373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG373">
+        <v>5</v>
+      </c>
+      <c r="BH373">
+        <v>5</v>
+      </c>
+      <c r="BI373">
+        <v>8</v>
+      </c>
+      <c r="BJ373">
+        <v>7</v>
+      </c>
+      <c r="BK373">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>1590614</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>44870.66666666666</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>75</v>
+      </c>
+      <c r="H374" t="s">
+        <v>71</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" t="s">
+        <v>302</v>
+      </c>
+      <c r="P374" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q374">
+        <v>6</v>
+      </c>
+      <c r="R374">
         <v>3</v>
       </c>
-      <c r="BH373">
+      <c r="S374">
+        <v>9</v>
+      </c>
+      <c r="T374">
+        <v>2.2</v>
+      </c>
+      <c r="U374">
+        <v>2.1</v>
+      </c>
+      <c r="V374">
+        <v>6</v>
+      </c>
+      <c r="W374">
+        <v>1.44</v>
+      </c>
+      <c r="X374">
+        <v>2.63</v>
+      </c>
+      <c r="Y374">
+        <v>3.25</v>
+      </c>
+      <c r="Z374">
+        <v>1.33</v>
+      </c>
+      <c r="AA374">
+        <v>9</v>
+      </c>
+      <c r="AB374">
+        <v>1.07</v>
+      </c>
+      <c r="AC374">
+        <v>1.58</v>
+      </c>
+      <c r="AD374">
+        <v>3.86</v>
+      </c>
+      <c r="AE374">
+        <v>5.75</v>
+      </c>
+      <c r="AF374">
+        <v>1.02</v>
+      </c>
+      <c r="AG374">
+        <v>8.6</v>
+      </c>
+      <c r="AH374">
+        <v>1.33</v>
+      </c>
+      <c r="AI374">
+        <v>3.1</v>
+      </c>
+      <c r="AJ374">
+        <v>2.07</v>
+      </c>
+      <c r="AK374">
+        <v>1.75</v>
+      </c>
+      <c r="AL374">
+        <v>2.2</v>
+      </c>
+      <c r="AM374">
+        <v>1.62</v>
+      </c>
+      <c r="AN374">
+        <v>1.08</v>
+      </c>
+      <c r="AO374">
+        <v>1.2</v>
+      </c>
+      <c r="AP374">
+        <v>2.2</v>
+      </c>
+      <c r="AQ374">
+        <v>1.94</v>
+      </c>
+      <c r="AR374">
+        <v>0.5</v>
+      </c>
+      <c r="AS374">
+        <v>2</v>
+      </c>
+      <c r="AT374">
+        <v>0.47</v>
+      </c>
+      <c r="AU374">
+        <v>1.86</v>
+      </c>
+      <c r="AV374">
+        <v>1.2</v>
+      </c>
+      <c r="AW374">
+        <v>3.06</v>
+      </c>
+      <c r="AX374">
+        <v>1.22</v>
+      </c>
+      <c r="AY374">
+        <v>8</v>
+      </c>
+      <c r="AZ374">
+        <v>4.95</v>
+      </c>
+      <c r="BA374">
+        <v>1.21</v>
+      </c>
+      <c r="BB374">
+        <v>1.36</v>
+      </c>
+      <c r="BC374">
+        <v>1.7</v>
+      </c>
+      <c r="BD374">
+        <v>2.08</v>
+      </c>
+      <c r="BE374">
+        <v>2.69</v>
+      </c>
+      <c r="BF374">
+        <v>7</v>
+      </c>
+      <c r="BG374">
+        <v>2</v>
+      </c>
+      <c r="BH374">
+        <v>15</v>
+      </c>
+      <c r="BI374">
+        <v>7</v>
+      </c>
+      <c r="BJ374">
+        <v>22</v>
+      </c>
+      <c r="BK374">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>1590618</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>44870.75</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>80</v>
+      </c>
+      <c r="H375" t="s">
+        <v>72</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375" t="s">
+        <v>303</v>
+      </c>
+      <c r="P375" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q375">
+        <v>7</v>
+      </c>
+      <c r="R375">
+        <v>8</v>
+      </c>
+      <c r="S375">
+        <v>15</v>
+      </c>
+      <c r="T375">
+        <v>2.38</v>
+      </c>
+      <c r="U375">
+        <v>2</v>
+      </c>
+      <c r="V375">
+        <v>5.5</v>
+      </c>
+      <c r="W375">
+        <v>1.5</v>
+      </c>
+      <c r="X375">
+        <v>2.5</v>
+      </c>
+      <c r="Y375">
+        <v>3.5</v>
+      </c>
+      <c r="Z375">
+        <v>1.29</v>
+      </c>
+      <c r="AA375">
+        <v>10</v>
+      </c>
+      <c r="AB375">
+        <v>1.06</v>
+      </c>
+      <c r="AC375">
+        <v>1.63</v>
+      </c>
+      <c r="AD375">
+        <v>3.72</v>
+      </c>
+      <c r="AE375">
+        <v>5.45</v>
+      </c>
+      <c r="AF375">
+        <v>1.1</v>
+      </c>
+      <c r="AG375">
+        <v>6.5</v>
+      </c>
+      <c r="AH375">
+        <v>1.45</v>
+      </c>
+      <c r="AI375">
+        <v>2.65</v>
+      </c>
+      <c r="AJ375">
+        <v>2.18</v>
+      </c>
+      <c r="AK375">
+        <v>1.69</v>
+      </c>
+      <c r="AL375">
+        <v>2.25</v>
+      </c>
+      <c r="AM375">
+        <v>1.57</v>
+      </c>
+      <c r="AN375">
+        <v>1.12</v>
+      </c>
+      <c r="AO375">
+        <v>1.25</v>
+      </c>
+      <c r="AP375">
+        <v>2</v>
+      </c>
+      <c r="AQ375">
+        <v>2.39</v>
+      </c>
+      <c r="AR375">
+        <v>1.22</v>
+      </c>
+      <c r="AS375">
+        <v>2.42</v>
+      </c>
+      <c r="AT375">
+        <v>1.16</v>
+      </c>
+      <c r="AU375">
+        <v>1.71</v>
+      </c>
+      <c r="AV375">
+        <v>1.18</v>
+      </c>
+      <c r="AW375">
+        <v>2.89</v>
+      </c>
+      <c r="AX375">
+        <v>1.25</v>
+      </c>
+      <c r="AY375">
+        <v>7.5</v>
+      </c>
+      <c r="AZ375">
+        <v>4.75</v>
+      </c>
+      <c r="BA375">
+        <v>1.21</v>
+      </c>
+      <c r="BB375">
+        <v>1.41</v>
+      </c>
+      <c r="BC375">
+        <v>1.75</v>
+      </c>
+      <c r="BD375">
+        <v>2.16</v>
+      </c>
+      <c r="BE375">
+        <v>2.79</v>
+      </c>
+      <c r="BF375">
+        <v>12</v>
+      </c>
+      <c r="BG375">
+        <v>14</v>
+      </c>
+      <c r="BH375">
+        <v>8</v>
+      </c>
+      <c r="BI375">
+        <v>7</v>
+      </c>
+      <c r="BJ375">
+        <v>20</v>
+      </c>
+      <c r="BK375">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>1590611</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>81</v>
+      </c>
+      <c r="H376" t="s">
+        <v>68</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="O376" t="s">
+        <v>213</v>
+      </c>
+      <c r="P376" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q376">
+        <v>9</v>
+      </c>
+      <c r="R376">
+        <v>8</v>
+      </c>
+      <c r="S376">
+        <v>17</v>
+      </c>
+      <c r="T376">
+        <v>2.63</v>
+      </c>
+      <c r="U376">
+        <v>2</v>
+      </c>
+      <c r="V376">
+        <v>4.33</v>
+      </c>
+      <c r="W376">
+        <v>1.5</v>
+      </c>
+      <c r="X376">
+        <v>2.5</v>
+      </c>
+      <c r="Y376">
+        <v>3.4</v>
+      </c>
+      <c r="Z376">
+        <v>1.3</v>
+      </c>
+      <c r="AA376">
+        <v>10</v>
+      </c>
+      <c r="AB376">
+        <v>1.06</v>
+      </c>
+      <c r="AC376">
+        <v>1.74</v>
+      </c>
+      <c r="AD376">
+        <v>3.35</v>
+      </c>
+      <c r="AE376">
+        <v>4.85</v>
+      </c>
+      <c r="AF376">
+        <v>1.05</v>
+      </c>
+      <c r="AG376">
+        <v>7.6</v>
+      </c>
+      <c r="AH376">
+        <v>1.43</v>
+      </c>
+      <c r="AI376">
+        <v>2.9</v>
+      </c>
+      <c r="AJ376">
+        <v>2.25</v>
+      </c>
+      <c r="AK376">
+        <v>1.6</v>
+      </c>
+      <c r="AL376">
+        <v>2</v>
+      </c>
+      <c r="AM376">
+        <v>1.73</v>
+      </c>
+      <c r="AN376">
+        <v>1.18</v>
+      </c>
+      <c r="AO376">
+        <v>1.28</v>
+      </c>
+      <c r="AP376">
+        <v>1.78</v>
+      </c>
+      <c r="AQ376">
+        <v>1.67</v>
+      </c>
+      <c r="AR376">
+        <v>1</v>
+      </c>
+      <c r="AS376">
+        <v>1.74</v>
+      </c>
+      <c r="AT376">
+        <v>0.95</v>
+      </c>
+      <c r="AU376">
+        <v>1.67</v>
+      </c>
+      <c r="AV376">
+        <v>1.39</v>
+      </c>
+      <c r="AW376">
+        <v>3.06</v>
+      </c>
+      <c r="AX376">
+        <v>1.33</v>
+      </c>
+      <c r="AY376">
+        <v>6.5</v>
+      </c>
+      <c r="AZ376">
+        <v>3.65</v>
+      </c>
+      <c r="BA376">
+        <v>1.18</v>
+      </c>
+      <c r="BB376">
+        <v>1.32</v>
+      </c>
+      <c r="BC376">
+        <v>1.63</v>
+      </c>
+      <c r="BD376">
+        <v>1.99</v>
+      </c>
+      <c r="BE376">
+        <v>2.46</v>
+      </c>
+      <c r="BF376">
         <v>4</v>
       </c>
-      <c r="BI373">
-        <v>0</v>
-      </c>
-      <c r="BJ373">
+      <c r="BG376">
+        <v>3</v>
+      </c>
+      <c r="BH376">
+        <v>7</v>
+      </c>
+      <c r="BI376">
+        <v>9</v>
+      </c>
+      <c r="BJ376">
+        <v>11</v>
+      </c>
+      <c r="BK376">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>1590619</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>44871.77083333334</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>74</v>
+      </c>
+      <c r="H377" t="s">
+        <v>83</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+      <c r="K377">
+        <v>2</v>
+      </c>
+      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="M377">
+        <v>2</v>
+      </c>
+      <c r="N377">
+        <v>5</v>
+      </c>
+      <c r="O377" t="s">
+        <v>304</v>
+      </c>
+      <c r="P377" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q377">
+        <v>9</v>
+      </c>
+      <c r="R377">
+        <v>3</v>
+      </c>
+      <c r="S377">
+        <v>12</v>
+      </c>
+      <c r="T377">
+        <v>2.3</v>
+      </c>
+      <c r="U377">
+        <v>2.05</v>
+      </c>
+      <c r="V377">
+        <v>5.5</v>
+      </c>
+      <c r="W377">
+        <v>1.5</v>
+      </c>
+      <c r="X377">
+        <v>2.5</v>
+      </c>
+      <c r="Y377">
+        <v>3.4</v>
+      </c>
+      <c r="Z377">
+        <v>1.3</v>
+      </c>
+      <c r="AA377">
+        <v>10</v>
+      </c>
+      <c r="AB377">
+        <v>1.06</v>
+      </c>
+      <c r="AC377">
+        <v>1.76</v>
+      </c>
+      <c r="AD377">
+        <v>3.45</v>
+      </c>
+      <c r="AE377">
+        <v>4.5</v>
+      </c>
+      <c r="AF377">
+        <v>1.05</v>
+      </c>
+      <c r="AG377">
+        <v>7.9</v>
+      </c>
+      <c r="AH377">
+        <v>1.41</v>
+      </c>
+      <c r="AI377">
+        <v>2.98</v>
+      </c>
+      <c r="AJ377">
+        <v>2.15</v>
+      </c>
+      <c r="AK377">
+        <v>1.67</v>
+      </c>
+      <c r="AL377">
+        <v>2.2</v>
+      </c>
+      <c r="AM377">
+        <v>1.62</v>
+      </c>
+      <c r="AN377">
+        <v>1.14</v>
+      </c>
+      <c r="AO377">
+        <v>1.27</v>
+      </c>
+      <c r="AP377">
+        <v>2.14</v>
+      </c>
+      <c r="AQ377">
+        <v>2.5</v>
+      </c>
+      <c r="AR377">
+        <v>0.72</v>
+      </c>
+      <c r="AS377">
+        <v>2.53</v>
+      </c>
+      <c r="AT377">
+        <v>0.68</v>
+      </c>
+      <c r="AU377">
+        <v>2.07</v>
+      </c>
+      <c r="AV377">
+        <v>1.22</v>
+      </c>
+      <c r="AW377">
+        <v>3.29</v>
+      </c>
+      <c r="AX377">
+        <v>1.19</v>
+      </c>
+      <c r="AY377">
+        <v>8</v>
+      </c>
+      <c r="AZ377">
+        <v>5.5</v>
+      </c>
+      <c r="BA377">
+        <v>1.15</v>
+      </c>
+      <c r="BB377">
+        <v>1.28</v>
+      </c>
+      <c r="BC377">
+        <v>1.55</v>
+      </c>
+      <c r="BD377">
+        <v>1.88</v>
+      </c>
+      <c r="BE377">
+        <v>2.29</v>
+      </c>
+      <c r="BF377">
+        <v>11</v>
+      </c>
+      <c r="BG377">
+        <v>6</v>
+      </c>
+      <c r="BH377">
+        <v>14</v>
+      </c>
+      <c r="BI377">
+        <v>11</v>
+      </c>
+      <c r="BJ377">
+        <v>25</v>
+      </c>
+      <c r="BK377">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1590612</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>44871.77083333334</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>82</v>
+      </c>
+      <c r="H378" t="s">
+        <v>67</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>2</v>
+      </c>
+      <c r="N378">
+        <v>3</v>
+      </c>
+      <c r="O378" t="s">
+        <v>305</v>
+      </c>
+      <c r="P378" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q378">
+        <v>1</v>
+      </c>
+      <c r="R378">
+        <v>11</v>
+      </c>
+      <c r="S378">
+        <v>12</v>
+      </c>
+      <c r="T378">
+        <v>4.5</v>
+      </c>
+      <c r="U378">
+        <v>1.91</v>
+      </c>
+      <c r="V378">
+        <v>2.75</v>
+      </c>
+      <c r="W378">
+        <v>1.53</v>
+      </c>
+      <c r="X378">
+        <v>2.38</v>
+      </c>
+      <c r="Y378">
+        <v>3.75</v>
+      </c>
+      <c r="Z378">
+        <v>1.25</v>
+      </c>
+      <c r="AA378">
+        <v>11</v>
+      </c>
+      <c r="AB378">
+        <v>1.05</v>
+      </c>
+      <c r="AC378">
+        <v>4.35</v>
+      </c>
+      <c r="AD378">
+        <v>3</v>
+      </c>
+      <c r="AE378">
+        <v>1.93</v>
+      </c>
+      <c r="AF378">
+        <v>1.07</v>
+      </c>
+      <c r="AG378">
+        <v>6.45</v>
+      </c>
+      <c r="AH378">
+        <v>1.48</v>
+      </c>
+      <c r="AI378">
+        <v>2.47</v>
+      </c>
+      <c r="AJ378">
+        <v>2.5</v>
+      </c>
+      <c r="AK378">
+        <v>1.5</v>
+      </c>
+      <c r="AL378">
+        <v>2.2</v>
+      </c>
+      <c r="AM378">
+        <v>1.62</v>
+      </c>
+      <c r="AN378">
+        <v>1.79</v>
+      </c>
+      <c r="AO378">
+        <v>1.38</v>
+      </c>
+      <c r="AP378">
+        <v>1.24</v>
+      </c>
+      <c r="AQ378">
+        <v>1.78</v>
+      </c>
+      <c r="AR378">
+        <v>1</v>
+      </c>
+      <c r="AS378">
+        <v>1.68</v>
+      </c>
+      <c r="AT378">
+        <v>1.11</v>
+      </c>
+      <c r="AU378">
+        <v>1.53</v>
+      </c>
+      <c r="AV378">
+        <v>1.39</v>
+      </c>
+      <c r="AW378">
+        <v>2.92</v>
+      </c>
+      <c r="AX378">
+        <v>2.95</v>
+      </c>
+      <c r="AY378">
+        <v>6.25</v>
+      </c>
+      <c r="AZ378">
+        <v>1.47</v>
+      </c>
+      <c r="BA378">
+        <v>1.21</v>
+      </c>
+      <c r="BB378">
+        <v>1.36</v>
+      </c>
+      <c r="BC378">
+        <v>1.7</v>
+      </c>
+      <c r="BD378">
+        <v>2.09</v>
+      </c>
+      <c r="BE378">
+        <v>2.72</v>
+      </c>
+      <c r="BF378">
+        <v>3</v>
+      </c>
+      <c r="BG378">
+        <v>7</v>
+      </c>
+      <c r="BH378">
         <v>4</v>
       </c>
-      <c r="BK373">
+      <c r="BI378">
+        <v>12</v>
+      </c>
+      <c r="BJ378">
+        <v>7</v>
+      </c>
+      <c r="BK378">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>1590615</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>44871.77083333334</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>79</v>
+      </c>
+      <c r="H379" t="s">
+        <v>66</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>1</v>
+      </c>
+      <c r="O379" t="s">
+        <v>89</v>
+      </c>
+      <c r="P379" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q379">
+        <v>11</v>
+      </c>
+      <c r="R379">
         <v>3</v>
+      </c>
+      <c r="S379">
+        <v>14</v>
+      </c>
+      <c r="T379">
+        <v>2.88</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
+        <v>4</v>
+      </c>
+      <c r="W379">
+        <v>1.53</v>
+      </c>
+      <c r="X379">
+        <v>2.38</v>
+      </c>
+      <c r="Y379">
+        <v>3.5</v>
+      </c>
+      <c r="Z379">
+        <v>1.29</v>
+      </c>
+      <c r="AA379">
+        <v>11</v>
+      </c>
+      <c r="AB379">
+        <v>1.05</v>
+      </c>
+      <c r="AC379">
+        <v>2.33</v>
+      </c>
+      <c r="AD379">
+        <v>3.15</v>
+      </c>
+      <c r="AE379">
+        <v>3</v>
+      </c>
+      <c r="AF379">
+        <v>1.05</v>
+      </c>
+      <c r="AG379">
+        <v>7.5</v>
+      </c>
+      <c r="AH379">
+        <v>1.35</v>
+      </c>
+      <c r="AI379">
+        <v>2.9</v>
+      </c>
+      <c r="AJ379">
+        <v>2.25</v>
+      </c>
+      <c r="AK379">
+        <v>1.62</v>
+      </c>
+      <c r="AL379">
+        <v>2.1</v>
+      </c>
+      <c r="AM379">
+        <v>1.67</v>
+      </c>
+      <c r="AN379">
+        <v>1.27</v>
+      </c>
+      <c r="AO379">
+        <v>1.22</v>
+      </c>
+      <c r="AP379">
+        <v>1.67</v>
+      </c>
+      <c r="AQ379">
+        <v>2</v>
+      </c>
+      <c r="AR379">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS379">
+        <v>1.89</v>
+      </c>
+      <c r="AT379">
+        <v>1.05</v>
+      </c>
+      <c r="AU379">
+        <v>1.61</v>
+      </c>
+      <c r="AV379">
+        <v>1.35</v>
+      </c>
+      <c r="AW379">
+        <v>2.96</v>
+      </c>
+      <c r="AX379">
+        <v>1.43</v>
+      </c>
+      <c r="AY379">
+        <v>6</v>
+      </c>
+      <c r="AZ379">
+        <v>3.15</v>
+      </c>
+      <c r="BA379">
+        <v>1.18</v>
+      </c>
+      <c r="BB379">
+        <v>1.32</v>
+      </c>
+      <c r="BC379">
+        <v>1.63</v>
+      </c>
+      <c r="BD379">
+        <v>1.99</v>
+      </c>
+      <c r="BE379">
+        <v>2.45</v>
+      </c>
+      <c r="BF379">
+        <v>7</v>
+      </c>
+      <c r="BG379">
+        <v>8</v>
+      </c>
+      <c r="BH379">
+        <v>14</v>
+      </c>
+      <c r="BI379">
+        <v>6</v>
+      </c>
+      <c r="BJ379">
+        <v>21</v>
+      </c>
+      <c r="BK379">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>1590616</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>44871.77083333334</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>78</v>
+      </c>
+      <c r="H380" t="s">
+        <v>84</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>2</v>
+      </c>
+      <c r="K380">
+        <v>2</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>3</v>
+      </c>
+      <c r="N380">
+        <v>3</v>
+      </c>
+      <c r="O380" t="s">
+        <v>89</v>
+      </c>
+      <c r="P380" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q380">
+        <v>4</v>
+      </c>
+      <c r="R380">
+        <v>5</v>
+      </c>
+      <c r="S380">
+        <v>9</v>
+      </c>
+      <c r="T380">
+        <v>4.5</v>
+      </c>
+      <c r="U380">
+        <v>2</v>
+      </c>
+      <c r="V380">
+        <v>2.6</v>
+      </c>
+      <c r="W380">
+        <v>1.44</v>
+      </c>
+      <c r="X380">
+        <v>2.63</v>
+      </c>
+      <c r="Y380">
+        <v>3.4</v>
+      </c>
+      <c r="Z380">
+        <v>1.3</v>
+      </c>
+      <c r="AA380">
+        <v>10</v>
+      </c>
+      <c r="AB380">
+        <v>1.06</v>
+      </c>
+      <c r="AC380">
+        <v>4.85</v>
+      </c>
+      <c r="AD380">
+        <v>3.4</v>
+      </c>
+      <c r="AE380">
+        <v>1.72</v>
+      </c>
+      <c r="AF380">
+        <v>1.08</v>
+      </c>
+      <c r="AG380">
+        <v>6.5</v>
+      </c>
+      <c r="AH380">
+        <v>1.35</v>
+      </c>
+      <c r="AI380">
+        <v>2.9</v>
+      </c>
+      <c r="AJ380">
+        <v>2.1</v>
+      </c>
+      <c r="AK380">
+        <v>1.7</v>
+      </c>
+      <c r="AL380">
+        <v>2</v>
+      </c>
+      <c r="AM380">
+        <v>1.73</v>
+      </c>
+      <c r="AN380">
+        <v>1.93</v>
+      </c>
+      <c r="AO380">
+        <v>1.3</v>
+      </c>
+      <c r="AP380">
+        <v>1.25</v>
+      </c>
+      <c r="AQ380">
+        <v>1.33</v>
+      </c>
+      <c r="AR380">
+        <v>0.61</v>
+      </c>
+      <c r="AS380">
+        <v>1.26</v>
+      </c>
+      <c r="AT380">
+        <v>0.74</v>
+      </c>
+      <c r="AU380">
+        <v>1.66</v>
+      </c>
+      <c r="AV380">
+        <v>1.45</v>
+      </c>
+      <c r="AW380">
+        <v>3.11</v>
+      </c>
+      <c r="AX380">
+        <v>3.35</v>
+      </c>
+      <c r="AY380">
+        <v>6.75</v>
+      </c>
+      <c r="AZ380">
+        <v>1.37</v>
+      </c>
+      <c r="BA380">
+        <v>1.15</v>
+      </c>
+      <c r="BB380">
+        <v>1.27</v>
+      </c>
+      <c r="BC380">
+        <v>1.54</v>
+      </c>
+      <c r="BD380">
+        <v>1.88</v>
+      </c>
+      <c r="BE380">
+        <v>2.27</v>
+      </c>
+      <c r="BF380">
+        <v>4</v>
+      </c>
+      <c r="BG380">
+        <v>7</v>
+      </c>
+      <c r="BH380">
+        <v>5</v>
+      </c>
+      <c r="BI380">
+        <v>2</v>
+      </c>
+      <c r="BJ380">
+        <v>9</v>
+      </c>
+      <c r="BK380">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>1590620</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>44871.77083333334</v>
+      </c>
+      <c r="F381">
+        <v>38</v>
+      </c>
+      <c r="G381" t="s">
+        <v>73</v>
+      </c>
+      <c r="H381" t="s">
+        <v>70</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+      <c r="O381" t="s">
+        <v>89</v>
+      </c>
+      <c r="P381" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q381">
+        <v>5</v>
+      </c>
+      <c r="R381">
+        <v>5</v>
+      </c>
+      <c r="S381">
+        <v>10</v>
+      </c>
+      <c r="T381">
+        <v>4.33</v>
+      </c>
+      <c r="U381">
+        <v>1.91</v>
+      </c>
+      <c r="V381">
+        <v>2.88</v>
+      </c>
+      <c r="W381">
+        <v>1.57</v>
+      </c>
+      <c r="X381">
+        <v>2.25</v>
+      </c>
+      <c r="Y381">
+        <v>3.75</v>
+      </c>
+      <c r="Z381">
+        <v>1.25</v>
+      </c>
+      <c r="AA381">
+        <v>13</v>
+      </c>
+      <c r="AB381">
+        <v>1.04</v>
+      </c>
+      <c r="AC381">
+        <v>3.8</v>
+      </c>
+      <c r="AD381">
+        <v>3</v>
+      </c>
+      <c r="AE381">
+        <v>2.07</v>
+      </c>
+      <c r="AF381">
+        <v>1.12</v>
+      </c>
+      <c r="AG381">
+        <v>6.45</v>
+      </c>
+      <c r="AH381">
+        <v>1.52</v>
+      </c>
+      <c r="AI381">
+        <v>2.38</v>
+      </c>
+      <c r="AJ381">
+        <v>2.45</v>
+      </c>
+      <c r="AK381">
+        <v>1.53</v>
+      </c>
+      <c r="AL381">
+        <v>2.25</v>
+      </c>
+      <c r="AM381">
+        <v>1.57</v>
+      </c>
+      <c r="AN381">
+        <v>1.74</v>
+      </c>
+      <c r="AO381">
+        <v>1.37</v>
+      </c>
+      <c r="AP381">
+        <v>1.27</v>
+      </c>
+      <c r="AQ381">
+        <v>1.56</v>
+      </c>
+      <c r="AR381">
+        <v>0.67</v>
+      </c>
+      <c r="AS381">
+        <v>1.53</v>
+      </c>
+      <c r="AT381">
+        <v>0.68</v>
+      </c>
+      <c r="AU381">
+        <v>1.67</v>
+      </c>
+      <c r="AV381">
+        <v>1.43</v>
+      </c>
+      <c r="AW381">
+        <v>3.1</v>
+      </c>
+      <c r="AX381">
+        <v>2.5</v>
+      </c>
+      <c r="AY381">
+        <v>5.75</v>
+      </c>
+      <c r="AZ381">
+        <v>1.62</v>
+      </c>
+      <c r="BA381">
+        <v>1.2</v>
+      </c>
+      <c r="BB381">
+        <v>1.33</v>
+      </c>
+      <c r="BC381">
+        <v>1.67</v>
+      </c>
+      <c r="BD381">
+        <v>2.03</v>
+      </c>
+      <c r="BE381">
+        <v>2.69</v>
+      </c>
+      <c r="BF381">
+        <v>3</v>
+      </c>
+      <c r="BG381">
+        <v>0</v>
+      </c>
+      <c r="BH381">
+        <v>13</v>
+      </c>
+      <c r="BI381">
+        <v>9</v>
+      </c>
+      <c r="BJ381">
+        <v>16</v>
+      </c>
+      <c r="BK381">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie B_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
